--- a/service/deltahouronactivity.xlsx
+++ b/service/deltahouronactivity.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/service/deltahouronactivity.xlsx
+++ b/service/deltahouronactivity.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/service/deltahouronactivity.xlsx
+++ b/service/deltahouronactivity.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/service/deltahouronactivity.xlsx
+++ b/service/deltahouronactivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -607,7 +607,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -624,7 +624,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -641,7 +641,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>WLC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -656,10 +656,8 @@
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -674,7 +672,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -689,7 +687,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -704,7 +702,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -719,7 +717,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -734,7 +732,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -749,7 +747,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -764,7 +762,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -779,7 +777,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -794,7 +792,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -807,36 +805,6 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
